--- a/biology/Médecine/Pierre-Henri_Duboué/Pierre-Henri_Duboué.xlsx
+++ b/biology/Médecine/Pierre-Henri_Duboué/Pierre-Henri_Duboué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre-Henri_Dubou%C3%A9</t>
+          <t>Pierre-Henri_Duboué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre-Henri Duboué né le 15 juillet 1834 à Saint-Castin (Pyrénées-Atlantiques), et mort dans sa ville natale le 5 septembre 1889[1],[2]  est un médecin et chercheur français. Ses travaux les plus connus portèrent sur la voie nerveuse de transmission du virus de la rage[3] et furent repris par Louis Pasteur pour concevoir son vaccin contre la rage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Henri Duboué né le 15 juillet 1834 à Saint-Castin (Pyrénées-Atlantiques), et mort dans sa ville natale le 5 septembre 1889,  est un médecin et chercheur français. Ses travaux les plus connus portèrent sur la voie nerveuse de transmission du virus de la rage et furent repris par Louis Pasteur pour concevoir son vaccin contre la rage.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre-Henri_Dubou%C3%A9</t>
+          <t>Pierre-Henri_Duboué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Henri Duboué est né le 15 juillet 1834 à Saint-Castin (Pyrénées-Atlantiques). Il fait ses études secondaires au lycée de Pau, puis ses études à la faculté de médecine de Paris et fut interne des hôpitaux de Paris 
-[4].
+.
 Il pratiqua la médecine d’abord en campagne, puis en ville à Pau (Pyrénées-Atlantiques).
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre-Henri_Dubou%C3%A9</t>
+          <t>Pierre-Henri_Duboué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Études et travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chercheur également, il mena plusieurs travaux[4] sur le paludisme, la rage, le choléra et la fièvre typhoïde. Il s'intéressa à la thérapeutique alors à ses balbutiements, dont il espérait l’accès au rang de discipline scientifique grâce aux progrès de la physiologie. Ses travaux les plus notables portèrent sur l’étude de la voie nerveuse de propagation du virus rabique, qu'il démontra par déduction[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chercheur également, il mena plusieurs travaux sur le paludisme, la rage, le choléra et la fièvre typhoïde. Il s'intéressa à la thérapeutique alors à ses balbutiements, dont il espérait l’accès au rang de discipline scientifique grâce aux progrès de la physiologie. Ses travaux les plus notables portèrent sur l’étude de la voie nerveuse de propagation du virus rabique, qu'il démontra par déduction,.
 Le docteur Pierre-Henri Duboué fut également président (1877-1878) de la Société des Sciences, Lettres et Arts de Pau.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre-Henri_Dubou%C3%A9</t>
+          <t>Pierre-Henri_Duboué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Essai sur l'expérimentation thérapeutique, Pierre-Henri Duboué, Imp. Rignoux, 46 p., Paris, 1859.
 Nouvelles recherches sur le diagnostic des fièvres larvées paludéennes, Pierre-Henri Duboué, Cosson, 45 p., Paris, 1862.
@@ -586,7 +604,7 @@
 Observation de grossesse extra-utérine, gastrotomie, guérison, fistule intestinale au niveau de l'ombilc, Pierre-Henri Duboué, Delahaye, 45 p., Paris, 1874.
 De l'Action du sulfate de quinine sur l'utérus, Pierre-Henri Duboué, Lauwereyns, 15 p., Paris, 1874.
 Note sur l'emploi et les bons effets du tannin dans la pleurésie et notamment dans la pleurésie chronique purulente, Pierre-Henri Duboué, Adrien Delahaye, 15 p., Paris, 1876. Consultable sur Gallica.
-De quelques principes fondamentaux de la thérapeutique, applications pratiques : recherches sur les propriétés thérapeutiques du sulfate de quinine, de l'eau froide, de l'arsenic, du seigle ergoté, du tannin et du permanganate de potasse, de la pathogénie, des lésions morbides et du traitement rationnel du choléra, Pierre-Henri Duboué, Adrien Delahaye, 187[6].
+De quelques principes fondamentaux de la thérapeutique, applications pratiques : recherches sur les propriétés thérapeutiques du sulfate de quinine, de l'eau froide, de l'arsenic, du seigle ergoté, du tannin et du permanganate de potasse, de la pathogénie, des lésions morbides et du traitement rationnel du choléra, Pierre-Henri Duboué, Adrien Delahaye, 187.
 Recherches sur les propriétés thérapeutiques du seigle, Pierre-Henri Duboué, bibliothèque Sainte geneviève, 223 p., Paris, 2012 (Document numérisé dans le cadre du projet de bibliothèque numérique de la BSG : corpus Livres du 19e siècle. - Pagination de l'édition imprimée : 223 p. - Numérisation de l'édition de Paris : A. Goccoz, 1878
 Quelques principes fondamentaux de la thérapeutiques, Pierre-Henri Duboué, Paris, 1876.
 Des Bons effets du tannin dans un cas de vomissements incoërcibles pendant la grossesse, Pierre-Henri Duboué, V.-A. Delahaye, 15 p., Paris, 1878.
